--- a/MotorApp/Uploads/MotorBulkUpload.xlsx
+++ b/MotorApp/Uploads/MotorBulkUpload.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397384BD-D86F-4D0F-B1DD-C8D2B4F60A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F042661-B27D-4F65-AE7D-EDBCFE74247A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{364DFC83-DB1F-494E-A888-968D6C188F6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="MotorUpload" sheetId="1" r:id="rId1"/>
+    <sheet name="MotorUpload" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="190">
   <si>
     <t>Branch</t>
   </si>
@@ -135,9 +129,6 @@
     <t>PolicyEndDate</t>
   </si>
   <si>
-    <t>AG0005 - MARSH OMAN</t>
-  </si>
-  <si>
     <t>UAEExtensionNilPremiaum</t>
   </si>
   <si>
@@ -358,13 +349,259 @@
   </si>
   <si>
     <t>AssuredMobileNo</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00007</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00008</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00009</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00010</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00011</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00012</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00013</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00014</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00015</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00016</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00017</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00018</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00019</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00025</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00026</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00027</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00028</t>
+  </si>
+  <si>
+    <t>P/004/01/20/2402/00029</t>
+  </si>
+  <si>
+    <t>5434578</t>
+  </si>
+  <si>
+    <t>5434579</t>
+  </si>
+  <si>
+    <t>5434580</t>
+  </si>
+  <si>
+    <t>5434581</t>
+  </si>
+  <si>
+    <t>5434582</t>
+  </si>
+  <si>
+    <t>5434583</t>
+  </si>
+  <si>
+    <t>5434584</t>
+  </si>
+  <si>
+    <t>5434585</t>
+  </si>
+  <si>
+    <t>5434586</t>
+  </si>
+  <si>
+    <t>5434587</t>
+  </si>
+  <si>
+    <t>5434588</t>
+  </si>
+  <si>
+    <t>5434589</t>
+  </si>
+  <si>
+    <t>324234233</t>
+  </si>
+  <si>
+    <t>324234234</t>
+  </si>
+  <si>
+    <t>324234235</t>
+  </si>
+  <si>
+    <t>324234236</t>
+  </si>
+  <si>
+    <t>324234237</t>
+  </si>
+  <si>
+    <t>324234238</t>
+  </si>
+  <si>
+    <t>324234239</t>
+  </si>
+  <si>
+    <t>324234240</t>
+  </si>
+  <si>
+    <t>324234241</t>
+  </si>
+  <si>
+    <t>324234242</t>
+  </si>
+  <si>
+    <t>324234243</t>
+  </si>
+  <si>
+    <t>324234244</t>
+  </si>
+  <si>
+    <t>5675856761</t>
+  </si>
+  <si>
+    <t>BA0025 - Klaah Al Malada Trad. &amp; Cont</t>
+  </si>
+  <si>
+    <t>BA0026 - Safety City Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0007 - C.E. HEATH &amp; PARTNERS L.L.C.</t>
+  </si>
+  <si>
+    <t>SH005 - Mr.Ghaith AL-Maghribi</t>
+  </si>
+  <si>
+    <t>SH006 - Ms.Tahani Abdullah Al Najadi</t>
+  </si>
+  <si>
+    <t>SH007 - Ms.Ahad Ali Al Wahaibi</t>
+  </si>
+  <si>
+    <t>SH008 - Ms.Israa Zayid Khalifa Al Kindi</t>
+  </si>
+  <si>
+    <t>BA0057 - M/S TOWEL AUTO CENTRE L.L.C</t>
+  </si>
+  <si>
+    <t>BA0058 - M/S CRESENT GLOBAL</t>
+  </si>
+  <si>
+    <t>BA0059 - UNITED FINANCE COMPANY</t>
+  </si>
+  <si>
+    <t>BA0060 - ORYX INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>BA0061 - FIRST POLICY INSURANCE SERVICES</t>
+  </si>
+  <si>
+    <t>BA0062 - High Capacity Trading LLC</t>
+  </si>
+  <si>
+    <t>BA0063 - PWS GULF LLC</t>
+  </si>
+  <si>
+    <t>BA0123 - WABAS AL ALMIYAH</t>
+  </si>
+  <si>
+    <t>BA9989 - HOWDEN INSURANCE BROKERS LLC</t>
+  </si>
+  <si>
+    <t>BA9990 - AL HAYAH INSURANCE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>CSH001 - Cash Customers-HO</t>
+  </si>
+  <si>
+    <t>CSH002 - Cash Customers-Salalah</t>
+  </si>
+  <si>
+    <t>CSH003 - Cash Customers-Sohar</t>
+  </si>
+  <si>
+    <t>CSH004 - Cash Customers-Nizwa</t>
+  </si>
+  <si>
+    <t>CSH005 - Cash Customers-Seeb</t>
+  </si>
+  <si>
+    <t>CSH006 - Cash Customers-SQU</t>
+  </si>
+  <si>
+    <t>ME0001 - Naveed Shafi</t>
+  </si>
+  <si>
+    <t>ME0002 - Abdul Khaliq Abdul Rahman</t>
+  </si>
+  <si>
+    <t>ME0003 - Ranganathan Chakrapani</t>
+  </si>
+  <si>
+    <t>ME0004 - Fayaz Ahmed</t>
+  </si>
+  <si>
+    <t>SH001 - Ms.Kothar AL-Zadjali</t>
+  </si>
+  <si>
+    <t>BA9988 - NIZWA WINDOW TRAD &amp; CONT LLC</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>Sohar</t>
+  </si>
+  <si>
+    <t>Nizwa</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>SQU</t>
+  </si>
+  <si>
+    <t>P/004/02/20/2402/00020</t>
+  </si>
+  <si>
+    <t>P/004/03/20/2402/00021</t>
+  </si>
+  <si>
+    <t>P/004/04/20/2402/00022</t>
+  </si>
+  <si>
+    <t>P/004/05/20/2402/00023</t>
+  </si>
+  <si>
+    <t>P/004/06/20/2402/00024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,12 +630,6 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -455,9 +686,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,7 +711,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +720,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,48 +1038,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCAAF04-BCDA-42C3-82DA-16C602BC9242}">
-  <dimension ref="A1:AX7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C904B-30C1-411F-AD43-DBEE872A4A02}">
+  <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="11"/>
-    <col min="32" max="32" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.88671875" style="11"/>
-    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
@@ -871,85 +1079,85 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>2</v>
@@ -958,46 +1166,46 @@
         <v>3</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AQ1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="AU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
@@ -1011,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -1020,16 +1228,16 @@
         <v>44019.581944444442</v>
       </c>
       <c r="G2" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>44050.999305555553</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>10</v>
@@ -1068,7 +1276,7 @@
         <v>5000</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="4">
         <v>2</v>
@@ -1101,16 +1309,16 @@
         <v>56</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>16</v>
@@ -1137,7 +1345,7 @@
         <v>99342196</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>9</v>
@@ -1163,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -1172,16 +1380,16 @@
         <v>44050.581250000003</v>
       </c>
       <c r="G3" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>44051.999305555553</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -1220,7 +1428,7 @@
         <v>5000</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X3" s="4">
         <v>5</v>
@@ -1253,16 +1461,16 @@
         <v>56</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>16</v>
@@ -1289,7 +1497,7 @@
         <v>99342152</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="4" t="s">
         <v>9</v>
@@ -1315,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -1324,16 +1532,16 @@
         <v>44081.580555613429</v>
       </c>
       <c r="G4" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>44052.999305497688</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>10</v>
@@ -1372,7 +1580,7 @@
         <v>5000</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X4" s="4">
         <v>2</v>
@@ -1405,16 +1613,16 @@
         <v>56</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>16</v>
@@ -1441,7 +1649,7 @@
         <v>99342108</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU4" s="4" t="s">
         <v>9</v>
@@ -1467,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -1476,16 +1684,16 @@
         <v>44111.579861226855</v>
       </c>
       <c r="G5" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>44053.999305497688</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>10</v>
@@ -1524,7 +1732,7 @@
         <v>5000</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X5" s="4">
         <v>7</v>
@@ -1557,16 +1765,16 @@
         <v>56</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>16</v>
@@ -1593,7 +1801,7 @@
         <v>99342064</v>
       </c>
       <c r="AT5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU5" s="4" t="s">
         <v>9</v>
@@ -1619,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -1628,16 +1836,16 @@
         <v>44142.579166840274</v>
       </c>
       <c r="G6" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>44054.999305497688</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>10</v>
@@ -1676,7 +1884,7 @@
         <v>5000</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X6" s="4">
         <v>10</v>
@@ -1709,16 +1917,16 @@
         <v>56</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>16</v>
@@ -1745,7 +1953,7 @@
         <v>99342020</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU6" s="4" t="s">
         <v>9</v>
@@ -1765,13 +1973,13 @@
         <v>44142.581250000003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
@@ -1780,16 +1988,16 @@
         <v>44142.579166840274</v>
       </c>
       <c r="G7" s="5">
-        <v>44354.999305555553</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
+        <v>44073.999305555553</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>10</v>
@@ -1828,7 +2036,7 @@
         <v>5000</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X7" s="4">
         <v>10</v>
@@ -1845,38 +2053,38 @@
       <c r="AB7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AC7" s="10">
-        <v>5434575</v>
+      <c r="AC7" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="10">
-        <v>324234231</v>
+      <c r="AE7" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="AF7" s="10">
-        <v>46456456496</v>
+        <v>46456456514</v>
       </c>
       <c r="AG7" s="4">
         <v>56</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="10">
-        <v>5675856760</v>
+      <c r="AM7" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="AN7" s="4">
         <v>342</v>
@@ -1897,7 +2105,7 @@
         <v>99342020</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>9</v>
@@ -1912,17 +2120,3535 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44196.999305555553</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>23</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>5434576</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>324234232</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>46456456532</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>5675856761</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44184.999305555553</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>23</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T9" s="4">
+        <v>5</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>46456456550</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44182.999305555553</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>23</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>5434577</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>324234233</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>46456456568</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>5675856762</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44176.999305555553</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>23</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T11" s="4">
+        <v>5</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>46456456586</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>23</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>5434578</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>324234234</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>46456456604</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>5675856763</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43623.999305497688</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>23</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T13" s="4">
+        <v>5</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>46456456622</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS13" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44081.999305555553</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>23</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T14" s="4">
+        <v>5</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>5434579</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>324234235</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>46456456640</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>5675856764</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44083.999305555553</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>23</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T15" s="4">
+        <v>5</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>46456456658</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS15" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44085.999305497688</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>23</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T16" s="4">
+        <v>5</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>5434580</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>324234236</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>46456456676</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>5675856765</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G17" s="5">
+        <v>44087.999305497688</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>23</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T17" s="4">
+        <v>5</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>46456456694</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS17" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44089.999305497688</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>23</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T18" s="4">
+        <v>5</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>5434581</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>324234237</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>46456456712</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>5675856766</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44091.999305497688</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>23</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T19" s="4">
+        <v>5</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>46456456730</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44093.999305497688</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>23</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T20" s="4">
+        <v>5</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>5434582</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>324234238</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>46456456748</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM20" s="10">
+        <v>5675856767</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>23</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T21" s="4">
+        <v>5</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>46456456766</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G22" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>23</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T22" s="4">
+        <v>5</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>5434583</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>324234239</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>46456456784</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>5675856768</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>23</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T23" s="4">
+        <v>5</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>46456456802</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>23</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T24" s="4">
+        <v>5</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>5434584</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>324234240</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>46456456820</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>5675856769</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G25" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>23</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>46456456838</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS25" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O26" s="4">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>23</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T26" s="4">
+        <v>5</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>5434585</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>324234241</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>46456456856</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>5675856770</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G27" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>23</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T27" s="4">
+        <v>5</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>46456456874</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ27" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS27" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G28" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O28" s="4">
+        <v>5</v>
+      </c>
+      <c r="P28" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>23</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T28" s="4">
+        <v>5</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>5434586</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>324234242</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>46456456892</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>5675856771</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS28" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G29" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5</v>
+      </c>
+      <c r="P29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>23</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T29" s="4">
+        <v>5</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X29" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>46456456910</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS29" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44142.581250000003</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44142.579166782409</v>
+      </c>
+      <c r="G30" s="5">
+        <v>44354.999305497688</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2015</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5</v>
+      </c>
+      <c r="P30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>23</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="6">
+        <v>42500</v>
+      </c>
+      <c r="T30" s="4">
+        <v>5</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="4">
+        <v>5000</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>42382</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>5434587</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>324234243</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>46456456928</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>56</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>5675856772</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>342</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>131</v>
+      </c>
+      <c r="AP30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>99342197</v>
+      </c>
+      <c r="AR30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS30" s="10">
+        <v>99342020</v>
+      </c>
+      <c r="AT30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AT2" r:id="rId1" xr:uid="{E7DA6BD3-77D3-4C34-AE2B-2FE539EB692F}"/>
-    <hyperlink ref="AT3" r:id="rId2" xr:uid="{D2C5A263-6B6E-400A-9B8E-9C8E9DD817B6}"/>
-    <hyperlink ref="AT4" r:id="rId3" xr:uid="{2997C248-6071-4124-AD74-921C4CB0FDC5}"/>
-    <hyperlink ref="AT5" r:id="rId4" xr:uid="{0DEA0024-66E8-4CA6-A72D-27B8B4AB2B7E}"/>
-    <hyperlink ref="AT6" r:id="rId5" xr:uid="{FEA53551-1BAD-4464-BE67-98E82C59335E}"/>
-    <hyperlink ref="AT7" r:id="rId6" xr:uid="{04F3C786-F7A5-44A8-8EBE-F2A2804DC1CC}"/>
+    <hyperlink ref="AT2" r:id="rId1" xr:uid="{1505B51E-B496-40CA-A87D-527F9450B0CD}"/>
+    <hyperlink ref="AT3" r:id="rId2" xr:uid="{EAA01985-6C39-449E-B413-CC300EBDC17D}"/>
+    <hyperlink ref="AT4" r:id="rId3" xr:uid="{71ECF244-702C-4FE4-8888-4A193C9B6B3E}"/>
+    <hyperlink ref="AT5" r:id="rId4" xr:uid="{8FE3627C-833F-41DC-987F-B7AB4728C432}"/>
+    <hyperlink ref="AT6" r:id="rId5" xr:uid="{E3C9C753-57F1-4BDF-B089-D6640C8EA399}"/>
+    <hyperlink ref="AT7" r:id="rId6" xr:uid="{71D1728B-442B-44B0-9D8A-4C7EF9CE99CA}"/>
+    <hyperlink ref="AT8" r:id="rId7" xr:uid="{79AB37BB-8691-4224-8C4E-CCE8DADD9110}"/>
+    <hyperlink ref="AT9" r:id="rId8" xr:uid="{1F506763-73F1-47D8-8607-7A36A2B46402}"/>
+    <hyperlink ref="AT10" r:id="rId9" xr:uid="{29BB6F78-5403-48C1-95EC-B25E4B37AA72}"/>
+    <hyperlink ref="AT12" r:id="rId10" xr:uid="{670AFC83-2DF2-4D10-9A65-9BAD0942608E}"/>
+    <hyperlink ref="AT14" r:id="rId11" xr:uid="{D8F24A9F-5807-4217-9664-77E1134035C0}"/>
+    <hyperlink ref="AT16" r:id="rId12" xr:uid="{2882007A-BB57-41B1-B9AE-C15351A8E780}"/>
+    <hyperlink ref="AT18" r:id="rId13" xr:uid="{CB11EBCE-D163-45C4-96A7-A528AE5623C9}"/>
+    <hyperlink ref="AT20" r:id="rId14" xr:uid="{20C0FC75-A482-47D1-AFD0-A784FAE67C40}"/>
+    <hyperlink ref="AT22" r:id="rId15" xr:uid="{5C06571F-94D6-4C84-B6AF-5BF8BA9F2DE8}"/>
+    <hyperlink ref="AT24" r:id="rId16" xr:uid="{5D1C9F85-84F5-42AA-B565-62A3D2689AE8}"/>
+    <hyperlink ref="AT26" r:id="rId17" xr:uid="{1E9142D5-FE37-4022-A0E0-945B4E2CC7FB}"/>
+    <hyperlink ref="AT28" r:id="rId18" xr:uid="{B60870BA-01EF-4226-BE75-CDD6F686DCA6}"/>
+    <hyperlink ref="AT30" r:id="rId19" display="sathish@gmail.com" xr:uid="{5FF0AE1F-A0EA-4286-A3CE-C5057466F014}"/>
+    <hyperlink ref="AT11" r:id="rId20" xr:uid="{CA00A6C6-5C82-4E1B-94FD-A064A77DB565}"/>
+    <hyperlink ref="AT13" r:id="rId21" xr:uid="{F97D7B3E-677B-4B0B-9C87-4C24D7ECEA69}"/>
+    <hyperlink ref="AT15" r:id="rId22" xr:uid="{6967634D-0366-49F1-86A1-2FBE7B831763}"/>
+    <hyperlink ref="AT17" r:id="rId23" xr:uid="{1B174234-DE2F-499E-B53F-D078D5B64D7C}"/>
+    <hyperlink ref="AT19" r:id="rId24" xr:uid="{F03BC97F-C655-4B31-A888-5EE4FE20212D}"/>
+    <hyperlink ref="AT21" r:id="rId25" xr:uid="{40DFEE08-9C7E-4230-B01D-90DAEE6E3B1F}"/>
+    <hyperlink ref="AT23" r:id="rId26" xr:uid="{629CEFD0-F94A-49C9-8E65-706835ACCCFB}"/>
+    <hyperlink ref="AT25" r:id="rId27" xr:uid="{8E0C3B74-8384-43DE-858F-B4FDEBAF66F8}"/>
+    <hyperlink ref="AT27" r:id="rId28" xr:uid="{47CF3A59-52C8-4E3D-B5D8-E9A35EE19068}"/>
+    <hyperlink ref="AT29" r:id="rId29" xr:uid="{39214A62-6D92-452E-AF7D-190B3D5328B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
--- a/MotorApp/Uploads/MotorBulkUpload.xlsx
+++ b/MotorApp/Uploads/MotorBulkUpload.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Uploads\latest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeeva-PC\Desktop\MotorApplication-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F042661-B27D-4F65-AE7D-EDBCFE74247A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26437CB6-77D5-4596-9679-2585F0A16788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{364DFC83-DB1F-494E-A888-968D6C188F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{364DFC83-DB1F-494E-A888-968D6C188F6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="MotorUpload" sheetId="2" r:id="rId1"/>
+    <sheet name="MotorUpload" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1038,25 +1038,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073C904B-30C1-411F-AD43-DBEE872A4A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC3080-546C-457E-A8EA-39EB700F1A0B}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44019.581250000003</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>44019.581944444442</v>
       </c>
       <c r="G2" s="5">
-        <v>44050.999305555553</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>153</v>
@@ -1360,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44050.581250000003</v>
       </c>
@@ -1380,7 +1374,7 @@
         <v>44050.581250000003</v>
       </c>
       <c r="G3" s="5">
-        <v>44051.999305555553</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>154</v>
@@ -1512,7 +1506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44081.581250000003</v>
       </c>
@@ -1532,7 +1526,7 @@
         <v>44081.580555613429</v>
       </c>
       <c r="G4" s="5">
-        <v>44052.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>155</v>
@@ -1664,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44111.581250000003</v>
       </c>
@@ -1684,7 +1678,7 @@
         <v>44111.579861226855</v>
       </c>
       <c r="G5" s="5">
-        <v>44053.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>156</v>
@@ -1816,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>44142.579166840274</v>
       </c>
       <c r="G6" s="5">
-        <v>44054.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>157</v>
@@ -1968,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>44142.579166840274</v>
       </c>
       <c r="G7" s="5">
-        <v>44073.999305555553</v>
+        <v>44074.583333333336</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>151</v>
@@ -2120,7 +2114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2140,7 +2134,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G8" s="5">
-        <v>44196.999305555553</v>
+        <v>44074.583333333336</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>152</v>
@@ -2272,7 +2266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2292,7 +2286,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G9" s="5">
-        <v>44184.999305555553</v>
+        <v>44074.583333333336</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>158</v>
@@ -2424,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2444,7 +2438,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G10" s="5">
-        <v>44182.999305555553</v>
+        <v>44074</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>159</v>
@@ -2576,7 +2570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G11" s="5">
-        <v>44176.999305555553</v>
+        <v>44074</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>160</v>
@@ -2728,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2748,7 +2742,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G12" s="5">
-        <v>43623.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>161</v>
@@ -2880,7 +2874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -2900,7 +2894,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G13" s="5">
-        <v>43623.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>162</v>
@@ -3032,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3052,7 +3046,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G14" s="5">
-        <v>44081.999305555553</v>
+        <v>43708</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>163</v>
@@ -3184,7 +3178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G15" s="5">
-        <v>44083.999305555553</v>
+        <v>43708</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>164</v>
@@ -3336,7 +3330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3356,7 +3350,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G16" s="5">
-        <v>44085.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>165</v>
@@ -3488,7 +3482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G17" s="5">
-        <v>44087.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>179</v>
@@ -3640,7 +3634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3660,7 +3654,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G18" s="5">
-        <v>44089.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>166</v>
@@ -3792,7 +3786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G19" s="5">
-        <v>44091.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>167</v>
@@ -3944,7 +3938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -3964,7 +3958,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G20" s="5">
-        <v>44093.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>168</v>
@@ -4096,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G21" s="5">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>169</v>
@@ -4248,7 +4242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G22" s="5">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>170</v>
@@ -4400,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4420,7 +4414,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G23" s="5">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>171</v>
@@ -4552,7 +4546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4572,7 +4566,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G24" s="5">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>172</v>
@@ -4704,7 +4698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4724,7 +4718,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G25" s="5">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>173</v>
@@ -4856,7 +4850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -4876,7 +4870,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G26" s="5">
-        <v>44354.999305497688</v>
+        <v>44081.999305555553</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>174</v>
@@ -5008,7 +5002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -5028,7 +5022,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G27" s="5">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>175</v>
@@ -5160,7 +5154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -5180,7 +5174,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G28" s="5">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>176</v>
@@ -5312,7 +5306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -5332,7 +5326,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G29" s="5">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>177</v>
@@ -5464,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>44142.581250000003</v>
       </c>
@@ -5484,7 +5478,7 @@
         <v>44142.579166782409</v>
       </c>
       <c r="G30" s="5">
-        <v>44354.999305497688</v>
+        <v>43708</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>178</v>
@@ -5618,37 +5612,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AT2" r:id="rId1" xr:uid="{1505B51E-B496-40CA-A87D-527F9450B0CD}"/>
-    <hyperlink ref="AT3" r:id="rId2" xr:uid="{EAA01985-6C39-449E-B413-CC300EBDC17D}"/>
-    <hyperlink ref="AT4" r:id="rId3" xr:uid="{71ECF244-702C-4FE4-8888-4A193C9B6B3E}"/>
-    <hyperlink ref="AT5" r:id="rId4" xr:uid="{8FE3627C-833F-41DC-987F-B7AB4728C432}"/>
-    <hyperlink ref="AT6" r:id="rId5" xr:uid="{E3C9C753-57F1-4BDF-B089-D6640C8EA399}"/>
-    <hyperlink ref="AT7" r:id="rId6" xr:uid="{71D1728B-442B-44B0-9D8A-4C7EF9CE99CA}"/>
-    <hyperlink ref="AT8" r:id="rId7" xr:uid="{79AB37BB-8691-4224-8C4E-CCE8DADD9110}"/>
-    <hyperlink ref="AT9" r:id="rId8" xr:uid="{1F506763-73F1-47D8-8607-7A36A2B46402}"/>
-    <hyperlink ref="AT10" r:id="rId9" xr:uid="{29BB6F78-5403-48C1-95EC-B25E4B37AA72}"/>
-    <hyperlink ref="AT12" r:id="rId10" xr:uid="{670AFC83-2DF2-4D10-9A65-9BAD0942608E}"/>
-    <hyperlink ref="AT14" r:id="rId11" xr:uid="{D8F24A9F-5807-4217-9664-77E1134035C0}"/>
-    <hyperlink ref="AT16" r:id="rId12" xr:uid="{2882007A-BB57-41B1-B9AE-C15351A8E780}"/>
-    <hyperlink ref="AT18" r:id="rId13" xr:uid="{CB11EBCE-D163-45C4-96A7-A528AE5623C9}"/>
-    <hyperlink ref="AT20" r:id="rId14" xr:uid="{20C0FC75-A482-47D1-AFD0-A784FAE67C40}"/>
-    <hyperlink ref="AT22" r:id="rId15" xr:uid="{5C06571F-94D6-4C84-B6AF-5BF8BA9F2DE8}"/>
-    <hyperlink ref="AT24" r:id="rId16" xr:uid="{5D1C9F85-84F5-42AA-B565-62A3D2689AE8}"/>
-    <hyperlink ref="AT26" r:id="rId17" xr:uid="{1E9142D5-FE37-4022-A0E0-945B4E2CC7FB}"/>
-    <hyperlink ref="AT28" r:id="rId18" xr:uid="{B60870BA-01EF-4226-BE75-CDD6F686DCA6}"/>
-    <hyperlink ref="AT30" r:id="rId19" display="sathish@gmail.com" xr:uid="{5FF0AE1F-A0EA-4286-A3CE-C5057466F014}"/>
-    <hyperlink ref="AT11" r:id="rId20" xr:uid="{CA00A6C6-5C82-4E1B-94FD-A064A77DB565}"/>
-    <hyperlink ref="AT13" r:id="rId21" xr:uid="{F97D7B3E-677B-4B0B-9C87-4C24D7ECEA69}"/>
-    <hyperlink ref="AT15" r:id="rId22" xr:uid="{6967634D-0366-49F1-86A1-2FBE7B831763}"/>
-    <hyperlink ref="AT17" r:id="rId23" xr:uid="{1B174234-DE2F-499E-B53F-D078D5B64D7C}"/>
-    <hyperlink ref="AT19" r:id="rId24" xr:uid="{F03BC97F-C655-4B31-A888-5EE4FE20212D}"/>
-    <hyperlink ref="AT21" r:id="rId25" xr:uid="{40DFEE08-9C7E-4230-B01D-90DAEE6E3B1F}"/>
-    <hyperlink ref="AT23" r:id="rId26" xr:uid="{629CEFD0-F94A-49C9-8E65-706835ACCCFB}"/>
-    <hyperlink ref="AT25" r:id="rId27" xr:uid="{8E0C3B74-8384-43DE-858F-B4FDEBAF66F8}"/>
-    <hyperlink ref="AT27" r:id="rId28" xr:uid="{47CF3A59-52C8-4E3D-B5D8-E9A35EE19068}"/>
-    <hyperlink ref="AT29" r:id="rId29" xr:uid="{39214A62-6D92-452E-AF7D-190B3D5328B4}"/>
+    <hyperlink ref="AT2" r:id="rId1" xr:uid="{E9D3BF98-C37F-4C00-8607-7890F39A128A}"/>
+    <hyperlink ref="AT3" r:id="rId2" xr:uid="{156A1B2C-D081-497A-AEE1-B6EE08E0B1FD}"/>
+    <hyperlink ref="AT4" r:id="rId3" xr:uid="{AFD5A6BB-A376-4B7D-81DC-51AB6CE44052}"/>
+    <hyperlink ref="AT5" r:id="rId4" xr:uid="{392963F2-E07F-4443-893B-A915A9066F96}"/>
+    <hyperlink ref="AT6" r:id="rId5" xr:uid="{3534CAEE-1412-4B08-BE8C-3D874CE2865F}"/>
+    <hyperlink ref="AT7" r:id="rId6" xr:uid="{019AA22B-A258-4D99-A4E4-37FC11F139EF}"/>
+    <hyperlink ref="AT8" r:id="rId7" xr:uid="{66CCF22A-6158-48AE-8923-C35834B654B9}"/>
+    <hyperlink ref="AT9" r:id="rId8" xr:uid="{341121B5-B4C2-4379-BE57-0EFE165C1C74}"/>
+    <hyperlink ref="AT10" r:id="rId9" xr:uid="{856ACC75-955E-48F2-AE4F-14183042C7C5}"/>
+    <hyperlink ref="AT12" r:id="rId10" xr:uid="{53F20AB8-81F1-4AE6-968A-FDEA1ED37CB4}"/>
+    <hyperlink ref="AT14" r:id="rId11" xr:uid="{CD4BE210-FCB5-4661-B7DD-7A4430F0016D}"/>
+    <hyperlink ref="AT16" r:id="rId12" xr:uid="{840672E8-94F2-44BF-BBDC-E96B25039F27}"/>
+    <hyperlink ref="AT18" r:id="rId13" xr:uid="{D5B21236-3EB2-46A5-81F4-82D2F4FD632D}"/>
+    <hyperlink ref="AT20" r:id="rId14" xr:uid="{17BD6EC8-BFE7-4115-9D3F-DC29FDDC1DEA}"/>
+    <hyperlink ref="AT22" r:id="rId15" xr:uid="{1BE50E3C-94DD-4D14-AE57-8795295EFB71}"/>
+    <hyperlink ref="AT24" r:id="rId16" xr:uid="{14A1F1F1-D4AC-441A-BB54-D27B5AF7C6E5}"/>
+    <hyperlink ref="AT26" r:id="rId17" xr:uid="{5C85B26E-38AF-4E06-AE64-DE81456AC145}"/>
+    <hyperlink ref="AT28" r:id="rId18" xr:uid="{696179F1-F2C7-4BFE-BDDC-BA426F383734}"/>
+    <hyperlink ref="AT30" r:id="rId19" display="sathish@gmail.com" xr:uid="{B00B5A00-F5DF-4CC2-A567-CA2ECD1E21F2}"/>
+    <hyperlink ref="AT11" r:id="rId20" xr:uid="{E41EBB8F-01FC-46C8-A8C8-D9855EDF5DE2}"/>
+    <hyperlink ref="AT13" r:id="rId21" xr:uid="{1051EFAA-C033-4973-9A91-A37130FD1C22}"/>
+    <hyperlink ref="AT15" r:id="rId22" xr:uid="{30F0EDDF-B64C-482F-8F5E-1CB88053E0C2}"/>
+    <hyperlink ref="AT17" r:id="rId23" xr:uid="{84628E16-5496-44EC-860A-CF08E7FEC5C7}"/>
+    <hyperlink ref="AT19" r:id="rId24" xr:uid="{E1D962B9-C4C2-4540-A252-A7E9ED56C837}"/>
+    <hyperlink ref="AT21" r:id="rId25" xr:uid="{C8383A43-F0AE-432B-A1F9-25D8E7565E34}"/>
+    <hyperlink ref="AT23" r:id="rId26" xr:uid="{C5ADFC6F-5C47-4C59-B463-7B9BDBE7FE77}"/>
+    <hyperlink ref="AT25" r:id="rId27" xr:uid="{70EC2EE9-049E-415C-8791-A4D482A78C28}"/>
+    <hyperlink ref="AT27" r:id="rId28" xr:uid="{49784335-2F8B-45BC-8FFC-C229C586655D}"/>
+    <hyperlink ref="AT29" r:id="rId29" xr:uid="{99B984E8-C26F-4881-A732-0BE6DDC01851}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>